--- a/matrizDeAdyacencia.xlsx
+++ b/matrizDeAdyacencia.xlsx
@@ -844,7 +844,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -852,16 +852,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1166,7 +1182,7 @@
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+      <selection sqref="A1:X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,1775 +1203,1776 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1</v>
+      </c>
+      <c r="X3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1</v>
+      </c>
+      <c r="X7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
+        <v>1</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+      <c r="X17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2">
+        <v>1</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
+        <v>1</v>
+      </c>
+      <c r="T19" s="2">
+        <v>1</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0</v>
+      </c>
+      <c r="X19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
+        <v>1</v>
+      </c>
+      <c r="T20" s="2">
+        <v>1</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0</v>
+      </c>
+      <c r="U21" s="2">
+        <v>1</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2">
+        <v>0</v>
+      </c>
+      <c r="X21" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>1</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22">
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2">
+        <v>1</v>
+      </c>
+      <c r="W22" s="2">
+        <v>1</v>
+      </c>
+      <c r="X22" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>1</v>
-      </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="X23">
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0</v>
+      </c>
+      <c r="V23" s="2">
+        <v>1</v>
+      </c>
+      <c r="W23" s="2">
+        <v>1</v>
+      </c>
+      <c r="X23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24" s="2">
-        <v>1</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>1</v>
+      </c>
+      <c r="W24" s="2">
+        <v>0</v>
+      </c>
+      <c r="X24" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3029,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:F64" si="0">CONCATENATE(C2,B2&amp;",",D2&amp;"),")</f>
+        <f t="shared" ref="E2:E64" si="0">CONCATENATE(C2,B2&amp;",",D2&amp;"),")</f>
         <v>(e2,f,1),</v>
       </c>
       <c r="F2" t="s">
@@ -4352,7 +4369,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" ref="E65:F87" si="1">CONCATENATE(C65,B65&amp;",",D65&amp;"),")</f>
+        <f t="shared" ref="E65:E87" si="1">CONCATENATE(C65,B65&amp;",",D65&amp;"),")</f>
         <v>(e1,e1,1),</v>
       </c>
       <c r="F65" t="s">
